--- a/outputs-GTDB-r202/g__UBA4372.xlsx
+++ b/outputs-GTDB-r202/g__UBA4372.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp002391275</t>
+          <t>s__UBA4372 sp002391275(reject)</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp902802815</t>
+          <t>s__UBA4372 sp902802815(reject)</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp902801325</t>
+          <t>s__UBA4372 sp902801325(reject)</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp902801325</t>
+          <t>s__UBA4372 sp902801325(reject)</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313705</t>
+          <t>s__UBA4372 sp900313705(reject)</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp002391275</t>
+          <t>s__UBA4372 sp002391275(reject)</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313705</t>
+          <t>s__UBA4372 sp900313705(reject)</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313705</t>
+          <t>s__UBA4372 sp900313705(reject)</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp902781515</t>
+          <t>s__UBA4372 sp902781515(reject)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp002391275</t>
+          <t>s__UBA4372 sp002391275(reject)</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313705</t>
+          <t>s__UBA4372 sp900313705(reject)</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313705</t>
+          <t>s__UBA4372 sp900313705(reject)</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp002317475</t>
+          <t>s__UBA4372 sp002317475(reject)</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313705</t>
+          <t>s__UBA4372 sp900313705(reject)</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp002391275</t>
+          <t>s__UBA4372 sp002391275(reject)</t>
         </is>
       </c>
     </row>
